--- a/excel-files/naming-service/BO-DI-RF.xlsx
+++ b/excel-files/naming-service/BO-DI-RF.xlsx
@@ -239,7 +239,7 @@
     <t>RF</t>
   </si>
   <si>
-    <t>RFCav</t>
+    <t>P5Cav</t>
   </si>
 </sst>
 </file>
@@ -361,7 +361,7 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E62" activeCellId="0" sqref="E62"/>
+      <selection pane="topLeft" activeCell="E60" activeCellId="0" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
